--- a/biology/Zoologie/Fausse-coronide/Fausse-coronide.xlsx
+++ b/biology/Zoologie/Fausse-coronide/Fausse-coronide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia hansii
 La Fausse-coronide ou Faune d'Austaut (Hipparchia hansii) est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Hipparchia.
@@ -512,48 +524,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Hipparchia hansii par Jules Léon Austaut en 1879.
-Synonymes : Satyrus Hansii Austaut, 1879; Satyrus Fauna-holli Oberthür, 1909; Satyrus colombati Oberthür, 1921; Satyrus belouini Oberthür, 1921; Satyrus hansii intermedia Chnéour, 1963; Hipparchia hansii tansleyi Tarrier, 1995; Neohipparchia hansii [1].
-Sous-espèce
-Hipparchia hansii colombati (Oberthür, 1921) ; dans le Moyen Atlas marocain.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Hipparchia hansii par Jules Léon Austaut en 1879.
+Synonymes : Satyrus Hansii Austaut, 1879; Satyrus Fauna-holli Oberthür, 1909; Satyrus colombati Oberthür, 1921; Satyrus belouini Oberthür, 1921; Satyrus hansii intermedia Chnéour, 1963; Hipparchia hansii tansleyi Tarrier, 1995; Neohipparchia hansii .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hipparchia hansii colombati (Oberthür, 1921) ; dans le Moyen Atlas marocain.
 Hipparchia hansii edithae Tarrier, 1995 ; à Tizi-n-Talrhemt dans le Haut Atlas oriental marocain.
 Hipparchia hansii pseudostatilinus ssp. nova
 Hipparchia hansii tansleyi Tarrier, 1995 ; à Tizi-n-Taghatine, dans l'Anti-Atlas nord-oriental marocain.
 Hipparchia hansii subsaharae Tarrier 2002 ; à Tizi-n-Tazazert, dans l'Anti-Atlas nord-oriental marocain.
-Hipparchia hansii tlemcen[2],[3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fausse-coronide</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Noms vernaculaires</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fausse-coronide ou Faune d'Austaut se nomme Austaut's Grayling en anglais.
-</t>
+Hipparchia hansii tlemcen,</t>
         </is>
       </c>
     </row>
@@ -578,10 +596,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fausse-coronide ou Faune d'Austaut se nomme Austaut's Grayling en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Faune  d'Austaut est de couleur ocre foncée avec une tache androconiale pour le mâle, ocre plus clair pour la femelle, avec en bordure une frange entrecoupée et deux ocelles noirs aveugles ou très discrètement pupillés aux antérieures et un très petit aux postérieures.
 Le revers est marbré d'ocre et de blanc, plus uniformément ocre clair chez la femelle, avec les deux ocelles noirs cerclés d'ocre aux antérieures.
@@ -589,40 +642,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fausse-coronide</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Le Faune d'Austaut vole en une génération entre fin août et novembre[4].
-Plantes hôtes
-Ses plantes hôtes sont des Festuca[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -644,16 +663,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faune d'Austaut vole en une génération entre fin août et novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Festuca.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Faune  d'Austaut est présent en Afrique du Nord au Maroc dans le Haut-Atlas et le Moyen-Atlas, en Algérie, en Tunisie et dans le nord-ouest de la Libye[4]. Au Maroc il est présent partout de 200 à 2 600 mètres, mais pas en zones de culture, ni dans les oasis des zones sahariennes[3].
-Biotope
-Il réside dans des pentes rocheuses.
-Protection
-Il serait peu menacé à vulnérable suivant les régions[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faune  d'Austaut est présent en Afrique du Nord au Maroc dans le Haut-Atlas et le Moyen-Atlas, en Algérie, en Tunisie et dans le nord-ouest de la Libye. Au Maroc il est présent partout de 200 à 2 600 mètres, mais pas en zones de culture, ni dans les oasis des zones sahariennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des pentes rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fausse-coronide</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il serait peu menacé à vulnérable suivant les régions.
 </t>
         </is>
       </c>
